--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-medication-administration-inhaled-oxygen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -469,6 +469,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-medication-administration-inhaled-oxygen|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>MedicationAdministration.meta.security</t>
   </si>
   <si>
@@ -993,7 +996,7 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1153,7 +1156,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(RelatedPerson|4.0.1|Device|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1784,7 +1787,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="170.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3038,7 +3041,7 @@
         <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>79</v>
@@ -3109,10 +3112,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3135,16 +3138,16 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3170,13 +3173,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3194,7 +3197,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3226,10 +3229,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3252,16 +3255,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3287,13 +3290,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3311,7 +3314,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3343,10 +3346,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3372,13 +3375,13 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3428,7 +3431,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3460,10 +3463,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3486,16 +3489,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3521,13 +3524,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3545,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3577,14 +3580,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3603,16 +3606,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3662,7 +3665,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3680,7 +3683,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3694,14 +3697,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3720,16 +3723,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3779,7 +3782,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3797,7 +3800,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3843,7 +3846,7 @@
         <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>113</v>
@@ -3896,7 +3899,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3914,7 +3917,7 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3928,10 +3931,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3957,16 +3960,16 @@
         <v>110</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4015,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4033,7 +4036,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4047,10 +4050,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4073,16 +4076,16 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4132,7 +4135,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4147,13 +4150,13 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4164,10 +4167,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4193,10 +4196,10 @@
         <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4247,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4262,10 +4265,10 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4279,10 +4282,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4305,13 +4308,13 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4362,7 +4365,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4377,10 +4380,10 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4420,16 +4423,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4455,13 +4458,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4479,7 +4482,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>89</v>
@@ -4494,16 +4497,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4511,10 +4514,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4537,13 +4540,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4570,13 +4573,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4594,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4609,16 +4612,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4626,10 +4629,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4652,13 +4655,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4685,13 +4688,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4712,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4727,7 +4730,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4741,10 +4744,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4767,16 +4770,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4802,13 +4805,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4826,7 +4829,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
@@ -4841,16 +4844,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4858,10 +4861,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4973,10 +4976,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5090,10 +5093,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5116,19 +5119,19 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5177,7 +5180,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5195,13 +5198,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5209,10 +5212,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5324,10 +5327,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5441,10 +5444,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5470,23 +5473,23 @@
         <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>79</v>
@@ -5528,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5546,13 +5549,13 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5560,10 +5563,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5589,13 +5592,13 @@
         <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5645,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5663,13 +5666,13 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5677,10 +5680,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5703,24 +5706,24 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>79</v>
@@ -5762,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5780,13 +5783,13 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5794,10 +5797,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5823,14 +5826,14 @@
         <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5879,7 +5882,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5897,13 +5900,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5911,10 +5914,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5937,19 +5940,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5998,7 +6001,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6016,13 +6019,13 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6059,16 +6062,16 @@
         <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6117,7 +6120,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6135,13 +6138,13 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6175,13 +6178,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6232,7 +6235,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>89</v>
@@ -6247,16 +6250,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6264,10 +6267,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6290,13 +6293,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6347,7 +6350,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6362,16 +6365,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6379,10 +6382,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6405,13 +6408,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6462,7 +6465,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6480,10 +6483,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6494,10 +6497,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6520,13 +6523,13 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6577,7 +6580,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>89</v>
@@ -6592,16 +6595,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6609,10 +6612,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6635,13 +6638,13 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6692,7 +6695,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6707,16 +6710,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6724,10 +6727,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6839,10 +6842,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6956,14 +6959,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6985,16 +6988,16 @@
         <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7043,7 +7046,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7061,7 +7064,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7075,10 +7078,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7101,13 +7104,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7134,13 +7137,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7158,7 +7161,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7173,10 +7176,10 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7190,10 +7193,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7216,13 +7219,13 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7273,7 +7276,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>89</v>
@@ -7288,10 +7291,10 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7305,10 +7308,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7331,13 +7334,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7364,13 +7367,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7388,7 +7391,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7403,16 +7406,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7420,10 +7423,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7446,16 +7449,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7505,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7520,27 +7523,27 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7563,16 +7566,16 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7622,7 +7625,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7637,16 +7640,16 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7654,10 +7657,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7680,13 +7683,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7737,7 +7740,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7755,13 +7758,13 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7769,10 +7772,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7795,13 +7798,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7852,7 +7855,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7867,10 +7870,10 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -7884,10 +7887,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7910,13 +7913,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7967,7 +7970,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7979,13 +7982,13 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -7999,10 +8002,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8114,10 +8117,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8231,14 +8234,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8260,16 +8263,16 @@
         <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8318,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8336,7 +8339,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8350,10 +8353,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8379,10 +8382,10 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8433,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8451,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8465,10 +8468,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8491,16 +8494,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8526,13 +8529,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8550,7 +8553,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8568,13 +8571,13 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -8582,10 +8585,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8608,13 +8611,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8641,13 +8644,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8665,7 +8668,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8683,13 +8686,13 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8697,10 +8700,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8723,16 +8726,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8758,13 +8761,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8782,7 +8785,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8800,13 +8803,13 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -8814,10 +8817,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8840,16 +8843,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8899,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8917,13 +8920,13 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -8931,10 +8934,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8957,16 +8960,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9016,7 +9019,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9034,13 +9037,13 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9048,10 +9051,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9074,16 +9077,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9133,7 +9136,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9151,7 +9154,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
